--- a/Model Scores.xlsx
+++ b/Model Scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin Du\Documents\GitHub\Science-Fair-2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738E283-0925-4213-8874-A63AFDFFCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C125FA93-E4C3-482B-9200-28366A913404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72234D7A-BDE1-4234-8CDE-0ED0FC93A737}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Split by Index - 33/66</t>
   </si>
@@ -61,16 +61,25 @@
   </si>
   <si>
     <t>Random State</t>
+  </si>
+  <si>
+    <t>MAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,12 +108,12 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,241 +428,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB84A25-473B-420A-94CD-8DE7684E0236}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F29" sqref="F29:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="G4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0.65970907118755395</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5">
-        <v>0.82131118332215103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3">
+        <v>0.85209643236769195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>0.77745994155305498</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6">
-        <v>0.87851356431410599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3">
+        <v>0.86336579908687405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0.19535303776683</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7">
-        <v>0.103358778625954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3">
+        <v>9.8854961832060995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3">
+        <v>1.7136439964508102E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="G9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="3">
         <v>0.81379006515802299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-      <c r="E10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="G11" s="3">
         <v>0.85967061741506401</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
-      <c r="E11">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="3">
         <v>0.13823155216284899</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>2.42507436500322E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="G14" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="3">
         <v>0.85089853766492196</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="E14">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="3">
         <v>0.84467832359623896</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-      <c r="E15">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="3">
         <v>0.138619592875318</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="3">
+        <v>2.4032684108028599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="G19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-      <c r="E17">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="3">
         <v>0.88314150532985403</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="3">
         <v>0.86477054791070596</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="3">
         <v>0.113587786259542</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="2">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="3">
+        <v>1.9863645535937498E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="G24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-      <c r="E21">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="3">
         <v>0.89639211368517402</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-      <c r="E22">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="3">
         <v>0.81543649441680699</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-      <c r="E23">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="3">
         <v>0.114694656488549</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="2">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="G28" s="3">
+        <v>1.9617363303315E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="G29" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="G30" s="3">
         <v>0.81927438123053598</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="3">
         <v>0.86010358318786195</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="3">
         <v>0.14447201017811701</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="3">
+        <v>2.4925399692489102E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Model Scores.xlsx
+++ b/Model Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin Du\Documents\GitHub\Science-Fair-2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C125FA93-E4C3-482B-9200-28366A913404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC80BD2-644C-4798-AD4C-A431CFBDF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72234D7A-BDE1-4234-8CDE-0ED0FC93A737}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Split by Index - 33/66</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>with iloc split</t>
   </si>
@@ -64,6 +61,30 @@
   </si>
   <si>
     <t>MAPE</t>
+  </si>
+  <si>
+    <t>Training Size - 0.33</t>
+  </si>
+  <si>
+    <t>Training Size - 0.5</t>
+  </si>
+  <si>
+    <t>Training Size - 0.25</t>
+  </si>
+  <si>
+    <t>Training Size - 0.1</t>
+  </si>
+  <si>
+    <t>Training Size - 0.75</t>
+  </si>
+  <si>
+    <t>Training Size - 0.90</t>
+  </si>
+  <si>
+    <t>Training Size - 0.99</t>
+  </si>
+  <si>
+    <t>Split by Index - 33/66 (Residential British Columbia)</t>
   </si>
 </sst>
 </file>
@@ -85,12 +106,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,21 +138,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -428,291 +477,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB84A25-473B-420A-94CD-8DE7684E0236}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F33"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="4" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="3.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="7" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="B5">
         <v>0.65970907118755395</v>
       </c>
       <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="1">
+        <v>0.85209643236769195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3">
-        <v>0.85209643236769195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
       <c r="B6">
         <v>0.77745994155305498</v>
       </c>
       <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="1">
+        <v>0.86336579908687405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3">
-        <v>0.86336579908687405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
       </c>
       <c r="B7">
         <v>0.19535303776683</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="1">
+        <v>9.8854961832060995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="1">
+        <v>1.7136439964508102E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+      <c r="G10" s="1">
+        <v>0.81379006515802299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="1">
+        <v>0.85967061741506401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="1">
+        <v>0.13823155216284899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="7"/>
+      <c r="G13" s="1">
+        <v>2.42507436500322E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="7"/>
+      <c r="G15" s="1">
+        <v>0.85089853766492196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="7"/>
+      <c r="G16" s="1">
+        <v>0.84467832359623896</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="7"/>
+      <c r="G17" s="1">
+        <v>0.138619592875318</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+      <c r="G18" s="1">
+        <v>2.4032684108028599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="7"/>
+      <c r="G20" s="1">
+        <v>0.88314150532985403</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="7"/>
+      <c r="G21" s="1">
+        <v>0.86477054791070596</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+      <c r="G22" s="1">
+        <v>0.113587786259542</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="7"/>
+      <c r="G23" s="1">
+        <v>1.9863645535937498E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1">
+        <v>0.78092442479107604</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1">
+        <v>0.76436350877588199</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="8"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1">
+        <v>0.175392992424242</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1">
+        <v>2.9983103158223501E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="8"/>
+      <c r="G29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1">
+        <v>0.86466655136517601</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="8"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1">
+        <v>0.82065258181804002</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1">
+        <v>0.141456558773424</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1">
+        <v>2.42654764450142E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3">
+        <v>0.89639211368517402</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3">
+        <v>0.81543649441680699</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="3">
+        <v>0.114694656488549</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="3">
+        <v>1.9617363303315E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="8"/>
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1">
+        <v>0.91366959211383503</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1">
+        <v>0.91794929017865901</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="1">
+        <v>7.17135549872122E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="8"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="1">
+        <v>1.2215337168660099E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="8"/>
+      <c r="G44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="8"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="1">
+        <v>0.95394892788061603</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="8"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="1">
+        <v>0.95314415724724399</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="8"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1">
+        <v>3.9285714285714202E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="8"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="1">
+        <v>6.7260471871820604E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="8"/>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="8"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="1">
+        <v>0.97610606696102198</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="8"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="1">
+        <v>0.936411354284167</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="8"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="1">
+        <v>4.1518987341772097E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="8"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="1">
+        <v>6.9721644576012003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="8"/>
+      <c r="G54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="8"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="1">
+        <v>0.98073494037053599</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="8"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="8"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="8"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="7">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3">
-        <v>9.8854961832060995E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3">
-        <v>1.7136439964508102E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-      <c r="G10" s="3">
-        <v>0.81379006515802299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-      <c r="G11" s="3">
-        <v>0.85967061741506401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="3">
-        <v>0.13823155216284899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="3">
-        <v>2.42507436500322E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="G15" s="3">
-        <v>0.85089853766492196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-      <c r="G16" s="3">
-        <v>0.84467832359623896</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-      <c r="G17" s="3">
-        <v>0.138619592875318</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="G18" s="3">
-        <v>2.4032684108028599E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="3">
-        <v>0.88314150532985403</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="3">
-        <v>0.86477054791070596</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="3">
-        <v>0.113587786259542</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-      <c r="G23" s="3">
-        <v>1.9863645535937498E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-      <c r="G25" s="3">
-        <v>0.89639211368517402</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="3">
-        <v>0.81543649441680699</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="3">
-        <v>0.114694656488549</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="3">
-        <v>1.9617363303315E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="3">
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="7"/>
+      <c r="G60" s="1">
         <v>0.81927438123053598</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="3">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="7"/>
+      <c r="G61" s="1">
         <v>0.86010358318786195</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="3">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="7"/>
+      <c r="G62" s="1">
         <v>0.14447201017811701</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="3">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="7"/>
+      <c r="G63" s="1">
         <v>2.4925399692489102E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="G54:G58"/>
+    <mergeCell ref="F59:F63"/>
+    <mergeCell ref="F24:F58"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="G34:G38"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F29:F33"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
